--- a/数据整理/stocks/A股/深证主板/002572-索菲亚.xlsx
+++ b/数据整理/stocks/A股/深证主板/002572-索菲亚.xlsx
@@ -451,883 +451,1193 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>000457</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根核心成长</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.29</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4214</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>257030</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国联安优势混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2684</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>377010</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根阿尔法混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.45</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.24</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0614</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004952</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴全恒益债券A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>38.29</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>22.89</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7773</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>020026</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>国泰成长优选混合</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.80</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>93.16</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>4.75</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6555</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>180001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华优势企业混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.57</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>69.64</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4067</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519606</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰金鑫股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3441</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000823</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银华高端制造业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.18</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2279</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008773</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中银景泰回报混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>12.53</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>22.05</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1917</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>163823</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中银稳健策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.85</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>34.36</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1773</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>255010</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国联安稳健混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>69.76</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1684</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005274</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中银景福回报混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>11.16</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>25.51</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1674</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002510</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1568</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007074</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国寿安保新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>52.18</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1195</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006952</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中银景元回报混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>27.14</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1119</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007318</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中银民丰回报混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>23.70</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0972</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>673010</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>西部利得新动向混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>67.50</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0834</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002535</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中银鑫利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>24.62</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0604</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006863</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国联安智能制造混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002288</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中银稳进策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>007795</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005983</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>上投摩根核心精选股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>88.17</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
         <is>
           <t>007287</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>合煦智远消费主题股票A</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
         <is>
           <t>83.19</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>8.30</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004953</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>兴全恒益债券C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>22.89</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002536</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中银鑫利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>24.62</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>003586</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>先锋精一灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.62</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
         <is>
           <t>007288</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>合煦智远消费主题股票C</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
         <is>
           <t>83.19</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>8.30</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>255010</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>国联安稳健混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>69.76</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>7.76</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>257030</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>国联安优势混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>89.23</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>9.06</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>000457</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>上投摩根核心成长</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>89.29</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>8.62</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>519606</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>国泰金鑫股票</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>94.09</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>4.44</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>000823</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>银华高端制造业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>90.18</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>6.53</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>003587</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>先锋精一灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.62</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>180001</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>银华优势企业混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>69.64</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>4.25</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>004726</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>先锋聚优灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>673010</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>西部利得新动向混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>67.50</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>3.01</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>004727</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>先锋聚优灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>377010</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>上投摩根阿尔法混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>85.24</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>6.87</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>005274</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>中银景福回报混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>25.51</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>005983</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>上投摩根核心精选股票</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>88.17</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>8.87</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>008773</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>中银景泰回报混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>22.05</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>007795</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>申万菱信中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>91.33</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>2.16</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>004952</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>兴全恒益债券A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>22.89</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>2.03</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>004953</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>兴全恒益债券C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>22.89</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>2.03</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>002288</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>中银稳进策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>90.04</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>3.23</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>002510</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>申万菱信中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>91.33</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>2.16</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>002535</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>中银鑫利灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>24.62</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>002536</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>中银鑫利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>24.62</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>003586</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>先锋精一灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>89.62</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>5.54</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>003587</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>先锋精一灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>89.62</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>5.54</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>163823</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>中银稳健策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>34.36</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>006952</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>中银景元回报混合</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>27.14</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>007318</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>中银民丰回报混合</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>23.70</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>1.46</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>004726</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>先锋聚优灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>93.51</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>4.82</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>004727</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>先锋聚优灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>93.51</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>4.82</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>007074</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>国寿安保新蓝筹灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>52.18</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>2.23</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>006863</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>国联安智能制造混合</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>93.76</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>9.13</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1337,7 +1647,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1358,15 +1668,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003586</t>
+          <t>100060</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>先锋精一灵活配置混合A</t>
+          <t>富国高新技术产业混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>83.09</t>
+          <t>76.08</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.93</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>5</v>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.7279</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1406,26 +1736,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003587</t>
+          <t>000457</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>先锋精一灵活配置混合C</t>
+          <t>上投摩根核心成长</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>83.09</t>
+          <t>17.07</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5.93</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>5</v>
+          <t>88.70</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3024</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>020023</t>
+          <t>377010</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国泰事件驱动策略混合</t>
+          <t>上投摩根阿尔法混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>90.97</t>
+          <t>14.92</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.81</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>8</v>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2951</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1462,26 +1812,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001007</t>
+          <t>257030</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国联安鑫安灵活配置混合</t>
+          <t>国联安优势混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>89.80</t>
+          <t>11.66</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.22</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>7</v>
+          <t>88.50</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0307</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -1490,26 +1850,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004726</t>
+          <t>020026</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>先锋聚优灵活配置混合A</t>
+          <t>国泰成长优选混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>84.02</t>
+          <t>10.70</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>7.33</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>3</v>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8999</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -1518,26 +1888,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>004727</t>
+          <t>005888</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>先锋聚优灵活配置混合C</t>
+          <t>华夏新兴消费混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>84.02</t>
+          <t>23.38</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>7.33</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>3</v>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8791</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -1546,26 +1926,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>004729</t>
+          <t>004952</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中欧瑾泰灵活配置混合C</t>
+          <t>兴全恒益债券A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>84.02</t>
+          <t>36.93</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>7.33</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>3</v>
+          <t>22.45</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8235</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -1574,26 +1964,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>001163</t>
+          <t>519606</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>银华中国梦30股票</t>
+          <t>国泰金鑫股票</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>93.02</t>
+          <t>6.66</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>5.29</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>10</v>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4749</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -1602,26 +2002,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>005910</t>
+          <t>001163</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>广发龙头优选灵活配置混合</t>
+          <t>银华中国梦30股票</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>78.91</t>
+          <t>7.43</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>5.22</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>7</v>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3930</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -1630,26 +2040,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>005983</t>
+          <t>180001</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>上投摩根核心精选股票</t>
+          <t>银华优势企业混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>81.03</t>
+          <t>8.65</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>5</v>
+          <t>66.12</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3918</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -1658,26 +2078,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>255010</t>
+          <t>005889</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>国联安稳健混合</t>
+          <t>华夏新兴消费混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>68.53</t>
+          <t>7.49</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>8.78</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>2</v>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2816</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -1686,26 +2116,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>000457</t>
+          <t>161609</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>上投摩根核心成长</t>
+          <t>融通动力先锋混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>88.70</t>
+          <t>9.12</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>7.63</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>4</v>
+          <t>87.73</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2709</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -1714,26 +2154,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>257030</t>
+          <t>001195</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>国联安优势混合</t>
+          <t>工银瑞信农业产业股票</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>88.50</t>
+          <t>9.93</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>8.84</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>2</v>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2304</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -1742,26 +2192,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>377010</t>
+          <t>163302</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>上投摩根阿尔法混合</t>
+          <t>大摩资源优选混合(LOF)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>91.10</t>
+          <t>7.27</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>8.68</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>3</v>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2283</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -1770,25 +2230,35 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>000823</t>
+          <t>255010</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>银华高端制造业灵活配置混合</t>
+          <t>国联安稳健混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>90.48</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>7.25</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
+          <t>68.53</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2142</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1798,26 +2268,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>000916</t>
+          <t>000823</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>前海开源股息率100强等权重股票</t>
+          <t>银华高端制造业灵活配置混合</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>93.04</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.27</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>8</v>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1958</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -1826,26 +2306,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>006863</t>
+          <t>001007</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>国联安智能制造混合</t>
+          <t>国联安鑫安灵活配置混合</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>93.32</t>
+          <t>2.92</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>8.94</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>2</v>
+          <t>89.80</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0940</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="19">
@@ -1854,26 +2344,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>001056</t>
+          <t>160722</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>北信瑞丰健康生活主题灵活配置混合</t>
+          <t>嘉实惠泽灵活配置混合(LOF)</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>84.29</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2.96</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>10</v>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0603</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="20">
@@ -1882,26 +2382,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>007287</t>
+          <t>020023</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>合煦智远消费主题股票A</t>
+          <t>国泰事件驱动策略混合</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>77.07</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>8.87</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>2</v>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0590</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -1910,26 +2420,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>007288</t>
+          <t>004076</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>合煦智远消费主题股票C</t>
+          <t>国联安锐意成长混合</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>77.07</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>8.87</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>2</v>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0510</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -1938,26 +2458,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>001195</t>
+          <t>005910</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>工银瑞信农业产业股票</t>
+          <t>广发龙头优选灵活配置混合</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>90.60</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2.32</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>10</v>
+          <t>78.91</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0496</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="23">
@@ -1966,26 +2496,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>001229</t>
+          <t>001056</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>德邦福鑫灵活配置混合A</t>
+          <t>北信瑞丰健康生活主题灵活配置混合</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>86.44</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>3.04</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>6</v>
+          <t>84.29</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0477</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="24">
@@ -1994,26 +2534,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>002106</t>
+          <t>006863</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>德邦福鑫灵活配置混合C</t>
+          <t>国联安智能制造混合</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>86.44</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>3.04</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>6</v>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0349</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="25">
@@ -2022,26 +2572,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>020026</t>
+          <t>003016</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>国泰成长优选混合</t>
+          <t>中金中证500指数增强A</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>92.58</t>
+          <t>2.57</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>8.41</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>2</v>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="26">
@@ -2050,26 +2610,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>100060</t>
+          <t>000916</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>富国高新技术产业混合</t>
+          <t>前海开源股息率100强等权重股票</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>93.48</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>4.90</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>7</v>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="27">
@@ -2078,25 +2648,35 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>519606</t>
+          <t>007287</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>国泰金鑫股票</t>
+          <t>合煦智远消费主题股票A</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>90.48</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>7.13</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
+          <t>77.07</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2106,26 +2686,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>160415</t>
+          <t>004953</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>华安量化多因子混合（LOF）</t>
+          <t>兴全恒益债券C</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>85.54</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2.44</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>6</v>
+          <t>22.45</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -2134,26 +2724,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>002020</t>
+          <t>001229</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>国都创新驱动灵活配置混合</t>
+          <t>德邦福鑫灵活配置混合A</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>72.80</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2.12</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>9</v>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="30">
@@ -2162,26 +2762,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>160722</t>
+          <t>005983</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>嘉实惠泽灵活配置混合(LOF)</t>
+          <t>上投摩根核心精选股票</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>93.71</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>5.43</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>8</v>
+          <t>81.03</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="31">
@@ -2190,25 +2800,35 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>161609</t>
+          <t>003578</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>融通动力先锋混合</t>
+          <t>中金中证500指数增强C</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>87.73</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
         <v>10</v>
       </c>
     </row>
@@ -2218,26 +2838,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>163302</t>
+          <t>002106</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>大摩资源优选混合(LOF)</t>
+          <t>德邦福鑫灵活配置混合C</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>92.03</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>3.14</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>10</v>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="33">
@@ -2246,26 +2876,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>180001</t>
+          <t>002020</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>银华优势企业混合</t>
+          <t>国都创新驱动灵活配置混合</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>66.12</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>4.53</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>7</v>
+          <t>72.80</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="34">
@@ -2274,25 +2914,35 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>005888</t>
+          <t>004546</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>华夏新兴消费混合A</t>
+          <t>建信量化优享定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>91.96</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>3.76</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
+          <t>36.71</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
         <v>7</v>
       </c>
     </row>
@@ -2302,26 +2952,36 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>005889</t>
+          <t>007288</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>华夏新兴消费混合C</t>
+          <t>合煦智远消费主题股票C</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>91.96</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>3.76</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>7</v>
+          <t>77.07</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="36">
@@ -2330,26 +2990,36 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>003016</t>
+          <t>003586</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>中金中证500指数增强A</t>
+          <t>先锋精一灵活配置混合A</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>93.95</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>1.07</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>10</v>
+          <t>83.09</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="37">
@@ -2358,26 +3028,36 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>003578</t>
+          <t>003587</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>中金中证500指数增强C</t>
+          <t>先锋精一灵活配置混合C</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>93.95</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>1.07</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>10</v>
+          <t>83.09</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="38">
@@ -2386,26 +3066,36 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>004076</t>
+          <t>160415</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>国联安锐意成长混合</t>
+          <t>华安量化多因子混合（LOF）</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>90.96</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>3.11</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>9</v>
+          <t>85.54</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="39">
@@ -2414,26 +3104,36 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>004546</t>
+          <t>004726</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>建信量化优享定期开放灵活配置混合</t>
+          <t>先锋聚优灵活配置混合A</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>36.71</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>1.25</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>7</v>
+          <t>84.02</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="40">
@@ -2442,26 +3142,36 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>004952</t>
+          <t>004727</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>兴全恒益债券A</t>
+          <t>先锋聚优灵活配置混合C</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>22.45</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2.23</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>1</v>
+          <t>84.02</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="41">
@@ -2470,26 +3180,36 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>004953</t>
+          <t>004729</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>兴全恒益债券C</t>
+          <t>中欧瑾泰灵活配置混合C</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>22.45</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2.23</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>1</v>
+          <t>84.02</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002572-索菲亚.xlsx
+++ b/数据整理/stocks/A股/深证主板/002572-索菲亚.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3215,4 +3216,782 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000457</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根核心成长</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.70</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0020</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005888</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25.64</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9589</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>257030</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国联安优势混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.18</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.55</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9559</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>377010</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>上投摩根阿尔法混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.44</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>76.07</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9516</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004952</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴全恒益债券A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>31.20</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>26.39</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5366</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005889</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2861</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>255010</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国联安稳健混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>68.43</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2321</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001179</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>德邦大健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.30</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1159</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010457</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发睿鑫混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>26.74</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1006</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008840</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>德邦大消费混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.96</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0843</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008077</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>九泰天奕量化价值混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006863</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国联安智能制造混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008841</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>德邦大消费混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.96</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010458</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发睿鑫混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>26.74</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007287</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>合煦智远消费主题股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>84.90</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004953</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>兴全恒益债券C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>26.39</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005444</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>光大保德信多策略精选18个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>41.62</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007288</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>合煦智远消费主题股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>84.90</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008137</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>九泰天奕量化价值混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002572-索菲亚.xlsx
+++ b/数据整理/stocks/A股/深证主板/002572-索菲亚.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3994,4 +3995,364 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>257030</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国联安优势混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8406</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004952</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全恒益债券A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>31.91</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>23.53</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3351</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>255010</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国联安稳健混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>69.23</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2016</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006863</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国联安智能制造混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007287</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>合煦智远消费主题股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.54</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004953</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>兴全恒益债券C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>23.53</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007288</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>合煦智远消费主题股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.54</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519165</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>新华鑫利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>35.00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002572-索菲亚.xlsx
+++ b/数据整理/stocks/A股/深证主板/002572-索菲亚.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4355,4 +4356,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>19</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.38</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>40</v>
+      </c>
+      <c r="D4" t="n">
+        <v>13.23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>30</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002572-索菲亚.xlsx
+++ b/数据整理/stocks/A股/深证主板/002572-索菲亚.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4364,7 +4365,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4375,17 +4376,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4395,14 +4416,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.43</v>
+          <t>257030</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国联安优势混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9769</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -4411,14 +4454,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>19</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.38</v>
+          <t>160311</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏蓝筹混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>29.28</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.36</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9662</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -4427,14 +4492,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>40</v>
-      </c>
-      <c r="D4" t="n">
-        <v>13.23</v>
+          <t>257020</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国联安精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.21</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5325</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -4443,13 +4530,911 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>255010</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国联安稳健混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>69.11</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.81</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2551</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008840</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>德邦大消费混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.62</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2548</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010457</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发睿鑫混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>72.84</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1487</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002085</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长盛互联网+主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.40</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0683</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>560500</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.51</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0644</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>200010</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长城双动力混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0574</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008050</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>同泰慧择混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.72</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0526</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006199</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长盛同锦研究精选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>81.17</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0497</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007594</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0487</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001892</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长盛新兴成长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>81.20</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0467</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007593</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0451</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001007</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国联安鑫安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0427</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009726</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商中证500等权重指数增强A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0372</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004076</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国联安锐意成长混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006863</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国联安智能制造混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>9.77</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>512040</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国中证价值ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>99.33</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007287</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>合煦智远消费主题股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>83.83</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008841</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>德邦大消费混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>86.62</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009727</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>招商中证500等权重指数增强C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008051</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>同泰慧择混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.72</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>007288</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>合煦智远消费主题股票C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>83.83</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>24</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.79</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>19</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.38</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>40</v>
+      </c>
+      <c r="D5" t="n">
+        <v>13.23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>30</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>7.7</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002572-索菲亚.xlsx
+++ b/数据整理/stocks/A股/深证主板/002572-索菲亚.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5333,7 +5334,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5344,17 +5345,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5364,14 +5385,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>24</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.79</v>
+          <t>010377</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发价值核心混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>34.68</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3837</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -5380,14 +5423,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.43</v>
+          <t>001128</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>宝盈新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19.94</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.76</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0349</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -5396,14 +5461,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>19</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.38</v>
+          <t>257030</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国联安优势混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.63</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8407</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -5412,14 +5499,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>40</v>
-      </c>
-      <c r="D5" t="n">
-        <v>13.23</v>
+          <t>200015</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长城优化升级混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18.17</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.83</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8322</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -5428,13 +5537,1687 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>001487</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>宝盈优势产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>17.02</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6195</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011908</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发沪港深价值精选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.09</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4762</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000457</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>上投摩根核心成长</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.84</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.63</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3813</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>377010</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>上投摩根阿尔法混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.21</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3765</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009119</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发品质回报混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.80</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3377</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001118</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华宝事件驱动混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2503</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000612</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华宝生态中国混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2367</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010378</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发价值核心混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2194</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>255010</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国联安稳健混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>69.07</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.55</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1992</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001075</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>宝盈转型动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.64</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1939</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>501015</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>财通多策略升级混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1691</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000167</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发聚优灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1490</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>960009</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发聚优灵活配置混合H</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1490</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006671</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发消费升级股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1386</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002227</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>长城新优选混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>16.77</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>22.11</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1358</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011909</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发沪港深价值精选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1095</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006136</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发估值优势混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0990</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>970023</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>天风天盈一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>39.47</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0989</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006199</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长盛同锦研究精选混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>82.48</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0535</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005851</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>财通新视野灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>85.27</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0442</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001892</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>长盛新兴成长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>82.10</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002228</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>长城新优选混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>22.11</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0394</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011538</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>长城优选添瑞六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>25.71</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001007</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国联安鑫安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>70.24</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>004076</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国联安锐意成长混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>69.23</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>519613</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>银河君尚灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>29.99</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>519615</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>银河君尚灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>29.99</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002085</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>长盛互联网+主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>000057</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中银消费主题混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>86.22</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>200016</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>长城稳健成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>78.39</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009120</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>广发品质回报混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>89.80</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>006863</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>国联安智能制造混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005959</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>财通新视野灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>85.27</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010777</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>浙商智选家居股票A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001731</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>88.87</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001732</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略价值灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>88.87</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010778</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>浙商智选家居股票C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011430</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>广发估值优势混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>519614</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>银河君尚灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>29.99</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>673120</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>西部利得新富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>80.77</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011539</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>长城优选添瑞六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>25.71</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>45</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.93</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>24</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.79</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>19</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.38</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>40</v>
+      </c>
+      <c r="D6" t="n">
+        <v>13.23</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>30</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>7.7</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002572-索菲亚.xlsx
+++ b/数据整理/stocks/A股/深证主板/002572-索菲亚.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7100,7 +7101,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7111,17 +7112,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -7131,14 +7152,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>45</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8.93</v>
+          <t>257030</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国联安优势混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.94</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.57</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9513</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -7147,14 +7190,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>24</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.79</v>
+          <t>010963</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>信达澳银周期动力混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>40.51</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9479</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -7163,14 +7228,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>8</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.43</v>
+          <t>001128</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>宝盈新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7079</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -7179,14 +7266,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>19</v>
-      </c>
-      <c r="D5" t="n">
-        <v>5.38</v>
+          <t>010326</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时消费创新混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>19.42</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.74</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7030</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -7195,14 +7304,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>40</v>
-      </c>
-      <c r="D6" t="n">
-        <v>13.23</v>
+          <t>011908</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发沪港深价值精选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.52</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6808</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -7211,13 +7342,3551 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>000457</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>上投摩根核心成长</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.96</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>81.17</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5458</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007944</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>永赢乾元三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.34</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>97.08</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5139</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009119</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发品质回报混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4824</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005711</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>永赢惠添利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.71</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4731</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013385</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>信达澳银优势价值混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>14.32</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>83.64</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4597</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001118</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华宝事件驱动混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4559</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>377010</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>上投摩根阿尔法混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>11.95</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>84.43</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4469</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001487</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>宝盈优势产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>12.02</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4411</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000612</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华宝生态中国混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3811</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011837</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏扬中国优质成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3244</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007012</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>湘财长顺混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2825</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000167</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发聚优灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2818</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001075</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>宝盈转型动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2621</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006671</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发消费升级股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2421</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>255010</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国联安稳健混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>69.68</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>9.26</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2361</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011203</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>永赢惠添益混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2155</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>660012</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>农银消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>83.66</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2115</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>960033</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>农银消费主题混合H</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>83.66</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2115</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>166801</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>浙商聚潮新思维混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>76.32</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2091</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004505</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>博时新兴消费主题混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1789</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005682</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>财通资管消费精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1759</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010418</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>财通景气行业一年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1749</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>970023</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>天风天盈一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>74.48</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1630</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>015455</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>信达澳银周期动力混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1591</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011909</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>广发沪港深价值精选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1554</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006136</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>广发估值优势混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1518</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>501015</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>财通多策略升级混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>97.12</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1482</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001518</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>万家瑞兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>83.79</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1336</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>008128</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>湘财长源股票A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1329</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>900009</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中信证券成长动力混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1304</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>013393</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>信达澳银价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1179</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>007013</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>湘财长顺混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1162</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>012815</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>宝盈新兴产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0986</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010327</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>博时消费创新混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>89.74</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0967</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>006976</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>鹏华核心优势混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0894</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>007074</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>国寿安保新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>90.03</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0833</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>012771</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>宝盈优势产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0745</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>540009</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>汇丰晋信消费红利股票</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0653</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>008129</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>湘财长源股票C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0575</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011538</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>长城优选添瑞六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>23.70</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0554</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>004945</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>长信中证500指数增强</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0553</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011838</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>鹏扬中国优质成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0516</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>013386</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>信达澳银优势价值混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>83.64</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>519949</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>长信利信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>57.57</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0468</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>007294</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>长信利信灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>57.57</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0458</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>015271</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>财通多策略升级混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>97.12</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0394</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>008840</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>德邦大消费混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>519613</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>银河君尚灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>29.82</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>519615</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>银河君尚灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>29.82</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>009120</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>广发品质回报混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010539</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>浙商智多金稳健一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>39.22</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>000916</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>前海开源股息率100强等权重股票</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>000057</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>中银消费主题混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>87.54</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>010540</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>浙商智多金稳健一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>39.22</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>010205</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>国寿安保裕安混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>37.36</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>005851</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>财通新视野灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>005959</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>财通新视野灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>006863</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>国联安智能制造混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>9.63</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>005492</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>农银汇理研究驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>73.59</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>013426</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>贝莱德中国新视野混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>900059</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>中信证券成长动力混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>011734</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>国寿安保裕丰混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>24.06</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>000411</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>景顺长城优质成长</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>86.99</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>010777</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>浙商智选家居股票A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>005493</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>鑫元价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>60.60</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>008841</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>德邦大消费混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>011735</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>国寿安保裕丰混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>24.06</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>011204</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>永赢惠添益混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>013394</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>信达澳银价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>003456</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>信达澳银新目标灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>89.08</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>010765</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>国寿安保华丰混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>89.80</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>519969</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>长信新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>56.75</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>011020</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>财通资管消费精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>010778</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>浙商智选家居股票C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>011430</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>广发估值优势混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>673120</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>西部利得新富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>005126</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>银河量化稳进混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>71.60</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>519614</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>银河君尚灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>29.82</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>013881</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>长信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>007293</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>长信利信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>57.57</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>015041</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>西部利得新富灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>014085</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>浙商聚潮新思维混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>76.32</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>011539</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>长城优选添瑞六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>23.70</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>960009</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>广发聚优灵活配置混合H</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>0</v>
+      </c>
+      <c r="H90" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>010766</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>国寿安保华丰混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>89.80</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>0</v>
+      </c>
+      <c r="H91" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>005494</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>鑫元价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>60.60</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>0</v>
+      </c>
+      <c r="H92" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>010206</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>国寿安保裕安混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>37.36</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>0</v>
+      </c>
+      <c r="H93" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>011879</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>博时新兴消费主题混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>0</v>
+      </c>
+      <c r="H94" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>015390</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>万家瑞兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>83.79</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H95" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>015170</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>上投摩根核心成长C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>81.17</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G96" t="n">
+        <v>0</v>
+      </c>
+      <c r="H96" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>95</v>
+      </c>
+      <c r="D2" t="n">
+        <v>14.14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>45</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.93</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>24</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.79</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>19</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5.38</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>40</v>
+      </c>
+      <c r="D7" t="n">
+        <v>13.23</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>30</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>7.7</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002572-索菲亚.xlsx
+++ b/数据整理/stocks/A股/深证主板/002572-索菲亚.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="D2" t="n">
-        <v>14.14</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="D3" t="n">
-        <v>8.93</v>
+        <v>14.14</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="D4" t="n">
-        <v>3.79</v>
+        <v>8.93</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D5" t="n">
-        <v>1.43</v>
+        <v>3.79</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>5.38</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D7" t="n">
-        <v>13.23</v>
+        <v>5.38</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>40</v>
+      </c>
+      <c r="D8" t="n">
+        <v>13.23</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>30</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>7.7</v>
       </c>
     </row>
@@ -600,6 +617,1086 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>257030</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国联安优势混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.80</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7021</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010326</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时消费创新混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.03</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5233</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>257020</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国联安精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.39</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4031</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000457</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>上投摩根核心成长A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.60</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.82</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3946</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>377010</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>上投摩根阿尔法混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.76</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3631</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013623</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>湘财周期轮动一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2738</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>255010</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国联安稳健混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>68.18</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1917</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006864</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国联安核心资产策略混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1847</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007012</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>湘财长顺混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1803</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>671010</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>西部利得策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1702</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014325</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国联安核心趋势一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.69</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1526</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008128</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>湘财长源股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0921</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010327</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时消费创新混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.24</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0847</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011994</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国联安核心优势混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0847</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007013</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>湘财长顺混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0746</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>970023</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>天风天盈一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>70.03</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0538</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008129</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>湘财长源股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011060</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>西部利得策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004707</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>景顺长城睿成灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>29.49</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006863</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国联安智能制造混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>014326</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国联安核心趋势一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>86.69</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009619</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>博时女性消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>67.16</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004719</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>景顺长城睿成灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>29.49</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002005</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>工银新得利混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>27.58</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>015170</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>上投摩根核心成长C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.82</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009620</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>博时女性消费主题混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>67.16</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>015637</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>上投摩根阿尔法混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4251,7 +5348,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6017,7 +7114,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6985,7 +8082,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7345,7 +8442,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8123,7 +9220,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9699,7 +10796,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002572-索菲亚.xlsx
+++ b/数据整理/stocks/A股/深证主板/002572-索菲亚.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D2" t="n">
-        <v>4.08</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="D3" t="n">
-        <v>14.14</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="D4" t="n">
-        <v>8.93</v>
+        <v>14.14</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="D5" t="n">
-        <v>3.79</v>
+        <v>8.93</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D6" t="n">
-        <v>1.43</v>
+        <v>3.79</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>5.38</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D8" t="n">
-        <v>13.23</v>
+        <v>5.38</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,1226 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>40</v>
+      </c>
+      <c r="D9" t="n">
+        <v>13.23</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>30</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>7.7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000457</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根核心成长</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.29</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4214</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>257030</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国联安优势混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2684</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>377010</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根阿尔法混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.45</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.24</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0614</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004952</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴全恒益债券A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>38.29</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>22.89</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7773</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>020026</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰成长优选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.80</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6555</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>180001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华优势企业混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.57</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>69.64</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4067</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519606</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰金鑫股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3441</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000823</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银华高端制造业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.18</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2279</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008773</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中银景泰回报混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>12.53</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>22.05</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1917</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>163823</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中银稳健策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.85</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>34.36</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1773</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>255010</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国联安稳健混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>69.76</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1684</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005274</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中银景福回报混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>11.16</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>25.51</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1674</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002510</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1568</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007074</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国寿安保新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>52.18</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1195</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006952</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中银景元回报混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>27.14</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1119</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007318</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中银民丰回报混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>23.70</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0972</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>673010</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>西部利得新动向混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>67.50</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0834</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002535</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中银鑫利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>24.62</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0604</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006863</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国联安智能制造混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002288</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中银稳进策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>007795</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005983</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>上投摩根核心精选股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>88.17</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>007287</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>合煦智远消费主题股票A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>83.19</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004953</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>兴全恒益债券C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>22.89</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002536</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中银鑫利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>24.62</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>003586</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>先锋精一灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.62</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>007288</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>合煦智远消费主题股票C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>83.19</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>003587</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>先锋精一灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.62</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>004726</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>先锋聚优灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>004727</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>先锋聚优灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1830,1468 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>257030</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国联安优势混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.55</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7849</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000457</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根核心成长A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.54</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6144</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>377010</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根阿尔法混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.66</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5931</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>257020</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国联安精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.67</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4361</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006864</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国联安核心资产策略混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1999</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>255010</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国联安稳健混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>68.97</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1996</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013623</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>湘财周期轮动一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>79.16</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1681</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014325</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国联安核心趋势一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1652</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>020026</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰成长优选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1562</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008704</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发高股息优享混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>75.31</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1424</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001749</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商中国机遇股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1341</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012332</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>上银鑫尚稳健回报6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>65.64</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1296</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001179</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>德邦大健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1274</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008244</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>上银鑫卓混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1084</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004119</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>74.78</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1047</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011994</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国联安核心优势混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>9.27</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1020</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012530</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>永赢惠添盈一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0884</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008705</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发高股息优享混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>75.31</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>970023</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>天风天盈一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>71.48</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002844</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>金鹰多元策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004189</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华商消费行业股票</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>80.96</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006863</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国联安智能制造混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004756</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国寿安保稳吉混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>25.97</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>014326</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国联安核心趋势一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010313</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>上银鑫恒混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>82.18</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002005</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>工银新得利混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>26.23</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>015041</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>西部利得新富灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>015170</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>上投摩根核心成长C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>86.96</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>161722</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>招商丰泰灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>21.49</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>004757</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>国寿安保稳吉混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>25.97</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>012333</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>上银鑫尚稳健回报6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>65.64</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>673120</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>西部利得新富灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>013846</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>上银鑫恒混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>82.18</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>006857</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>蜂巢卓睿灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>68.96</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>015637</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>上投摩根阿尔法混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>84.19</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>006858</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>蜂巢卓睿灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>68.96</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>015745</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>上银鑫卓混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1696,7 +4371,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5348,7 +8023,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7114,7 +9789,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8082,7 +10757,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8442,7 +11117,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9220,7 +11895,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10794,1200 +13469,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>000457</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>上投摩根核心成长</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>16.49</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>89.29</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>8.62</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.4214</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>257030</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>国联安优势混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>14.00</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>89.23</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>9.06</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.2684</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>377010</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>上投摩根阿尔法混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>15.45</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>85.24</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6.87</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.0614</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>004952</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>兴全恒益债券A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>38.29</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>22.89</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.03</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.7773</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>020026</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>国泰成长优选混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>13.80</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.16</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.75</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.6555</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>180001</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>银华优势企业混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>9.57</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>69.64</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.25</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.4067</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>519606</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>国泰金鑫股票</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>7.75</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.09</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.44</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.3441</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>000823</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>银华高端制造业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>90.18</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>6.53</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.2279</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>008773</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>中银景泰回报混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>12.53</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>22.05</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.1917</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>163823</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>中银稳健策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>9.85</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>34.36</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.1773</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>255010</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>国联安稳健混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2.17</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>69.76</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>7.76</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.1684</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>005274</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>中银景福回报混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>11.16</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>25.51</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.1674</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>002510</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>申万菱信中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>7.26</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>91.33</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2.16</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.1568</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>007074</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>国寿安保新蓝筹灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>5.36</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>52.18</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2.23</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.1195</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>006952</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>中银景元回报混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>7.46</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>27.14</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.1119</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>007318</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>中银民丰回报混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>6.66</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>23.70</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>1.46</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0972</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>673010</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>西部利得新动向混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>2.77</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>67.50</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>3.01</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0834</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>002535</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>中银鑫利灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>5.39</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>24.62</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0604</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>006863</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>国联安智能制造混合</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>93.76</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>9.13</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0447</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>002288</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>中银稳进策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>1.18</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>90.04</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>3.23</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0381</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>007795</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>申万菱信中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>91.33</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>2.16</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0235</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>005983</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>上投摩根核心精选股票</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.24</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>88.17</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>8.87</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0213</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>007287</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>合煦智远消费主题股票A</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>83.19</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>8.30</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0208</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>004953</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>兴全恒益债券C</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>22.89</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>2.03</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0205</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>002536</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>中银鑫利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>24.62</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0196</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>003586</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>先锋精一灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>89.62</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>5.54</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0044</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>007288</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>合煦智远消费主题股票C</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>83.19</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>8.30</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0042</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>003587</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>先锋精一灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>89.62</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>5.54</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0039</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>004726</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>先锋聚优灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>93.51</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>4.82</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0029</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>004727</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>先锋聚优灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>93.51</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>4.82</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0005</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>